--- a/src/server/data/reporting-periods.xlsx
+++ b/src/server/data/reporting-periods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/US_Digital_Response/cares-reporter/src/server/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/usdr/cares-reporter/src/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E44BFF72-26BA-D243-A717-CB7B0C89D90E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AF7008-83F6-A544-883A-02053ACF765C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="3220" windowWidth="26840" windowHeight="15940" xr2:uid="{D5E49C91-5B1F-3A46-9096-D9D9A298E242}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>10/13-20/2021</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>From email</t>
+  </si>
+  <si>
+    <t>OIG Information</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Bindu</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Subj:</t>
+  </si>
+  <si>
+    <t>originally from Stacie Massey/Ohio</t>
   </si>
 </sst>
 </file>
@@ -125,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -135,6 +156,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73151616-7D01-6943-B0DC-7661C6C20A52}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -624,6 +651,38 @@
         <v>37550</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
